--- a/data/app_trader_data_viz.xlsx
+++ b/data/app_trader_data_viz.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\Projects\app-trader-what-s-my-line\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC54CA6C-6B65-4B77-AA2F-68782CA336CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B7D6C4-9931-44EB-B592-EE668BA9B139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{83CF5B0F-6861-4E0D-94E2-B195796E1BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Play Store Genre" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="App Store Category" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="455">
   <si>
     <t>PewDiePie's Tuber Simulator</t>
   </si>
@@ -1334,6 +1338,82 @@
   </si>
   <si>
     <t>Expected Lifetime Value</t>
+  </si>
+  <si>
+    <t>Avg Expected Lifetime Value</t>
+  </si>
+  <si>
+    <t>Avg Play Store Price</t>
+  </si>
+  <si>
+    <t>Avg Play Store Rating</t>
+  </si>
+  <si>
+    <t># of Play Store Apps</t>
+  </si>
+  <si>
+    <t># of App Store Apps</t>
+  </si>
+  <si>
+    <t>Avg App Store Price</t>
+  </si>
+  <si>
+    <t>Avg App Store Rating</t>
+  </si>
+  <si>
+    <t>PHOTOGRAPHY 
+(8)</t>
+  </si>
+  <si>
+    <t>GAME 
+(108)</t>
+  </si>
+  <si>
+    <t>COMMUNICATION 
+(12)</t>
+  </si>
+  <si>
+    <t>PRODUCTIVITY 
+(11)</t>
+  </si>
+  <si>
+    <t>FAMILY 
+(103)</t>
+  </si>
+  <si>
+    <t>Productivity
+(15)</t>
+  </si>
+  <si>
+    <t>Games
+(189)</t>
+  </si>
+  <si>
+    <t>Reference
+(2)</t>
+  </si>
+  <si>
+    <t>Weather
+(2)</t>
+  </si>
+  <si>
+    <t>Photo &amp; Video
+(10)</t>
+  </si>
+  <si>
+    <t>med cost (&lt;= $5)</t>
+  </si>
+  <si>
+    <t>low cost (&lt;= $1)</t>
+  </si>
+  <si>
+    <t>high cost (&gt; $5)</t>
+  </si>
+  <si>
+    <t>App Store</t>
+  </si>
+  <si>
+    <t>Play Store</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,6 +1439,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1368,7 +1454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1376,14 +1462,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,6 +1519,4252 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Play Store Genre'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>PHOTOGRAPHY 
+(8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GAME 
+(108)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PRODUCTIVITY 
+(11)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMMUNICATION 
+(12)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FAMILY 
+(103)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Play Store Genre'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>435850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434732.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433163.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420220.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5856-4047-91EB-4DED97EBA5F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1141645904"/>
+        <c:axId val="1141642576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1141645904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="830" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141642576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1141642576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141645904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Play Store Genre'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>PHOTOGRAPHY 
+(8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GAME 
+(108)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PRODUCTIVITY 
+(11)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMMUNICATION 
+(12)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FAMILY 
+(103)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Play Store Genre'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>435850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434732.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433163.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420220.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D09-41CF-B686-E87C5071B262}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1141645904"/>
+        <c:axId val="1141642576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1141645904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="830" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141642576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1141642576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141645904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lifetime Value by App Store Genre</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'App Store Category'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Productivity
+(15)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Games
+(189)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reference
+(2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Book</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Weather
+(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'App Store Category'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>439120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433182.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE3A-4D89-9CA5-64FEBCCF9E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="978797920"/>
+        <c:axId val="978797504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="978797920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="978797504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="978797504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="978797920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('App Store Category'!$A$2:$A$4,'App Store Category'!$A$6:$A$7)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Productivity
+(15)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Games
+(189)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reference
+(2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Weather
+(2)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Photo &amp; Video
+(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('App Store Category'!$C$2:$C$4,'App Store Category'!$C$6:$C$7)</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>439120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433182.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>417050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF9E-4D1F-8D69-40E490399B83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1141642992"/>
+        <c:axId val="1141644240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1141642992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141644240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1141644240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141642992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03317EF8-DB39-4625-9F6C-45E838BA29EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8124825" y="1524000"/>
+          <a:ext cx="5972175" cy="4200525"/>
+          <a:chOff x="6905625" y="490536"/>
+          <a:chExt cx="6602803" cy="4700589"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4244BC35-A1A3-4375-857C-6105419BADAA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6905625" y="490536"/>
+          <a:ext cx="6048375" cy="4700589"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5424FEA0-2A78-4FD1-BF17-D33012065F52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7667626" y="1685781"/>
+            <a:ext cx="4981574" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABDD447-7354-401F-9AC6-E92FAA83C5AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12582525" y="1568991"/>
+            <a:ext cx="925903" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>$415,896.60</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900"/>
+              <a:t>AVG of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" baseline="0"/>
+              <a:t> all apps in both stores </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" baseline="0"/>
+              <a:t>(353)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807E8115-BFAF-493A-9829-A57209C878DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7696200" cy="5210175"/>
+          <a:chOff x="6905625" y="490536"/>
+          <a:chExt cx="6460506" cy="4700589"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0754744A-13FB-473B-9DE9-0468ADA6DE4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6905625" y="490536"/>
+          <a:ext cx="6048375" cy="4700589"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EDA9A3-FB53-41D5-B4A0-FF8304CE7994}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7667626" y="1328645"/>
+            <a:ext cx="4981574" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2183C67-DECA-4E8E-9048-536057EAB71F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12440228" y="1229043"/>
+            <a:ext cx="925903" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>$415,896.60</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900"/>
+              <a:t>AVG of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" baseline="0"/>
+              <a:t> all apps in both stores </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" baseline="0"/>
+              <a:t>(328)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB0D652-958E-4D1B-8BC4-478C248DE35A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6DED93-BED3-4E89-A846-7BAA8F89C39E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7362825" cy="4914900"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="6267450" cy="3419474"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98906B5C-1ACE-4BC8-86F7-0AA4CC043C91}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5848350" cy="3419474"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C40255-D08A-4B57-9163-2057653BCB90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1019175" y="628650"/>
+            <a:ext cx="4495800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DAF219-FC18-487A-B1F2-DBC2CE7ACAB9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5372100" y="504825"/>
+            <a:ext cx="895350" cy="828047"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>$415,896.60</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>AVG of all apps in both stores </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(328)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,7 +6067,7 @@
   <dimension ref="A1:K353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K353"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14068,10 +18434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E52664-3772-4DDC-B331-A5DAC48D6A46}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14450,8 +18816,1079 @@
         <v>422</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F17" s="1">
+        <v>399534.69</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>451</v>
+      </c>
+      <c r="F18" s="1">
+        <v>423702.03</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" s="1">
+        <v>249133.33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>450</v>
+      </c>
+      <c r="F23" s="1">
+        <v>388446.34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" s="1">
+        <v>424564.36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" s="1">
+        <v>249133.33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19D2676-6BA6-400A-BDAA-72D78DDDB4F9}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>467200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>435850</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1">
+        <v>434732.41</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>433163.64</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>426100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1">
+        <v>420220.39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="E7">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>417400</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>417050</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>415600</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>411500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E11">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>411000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>407200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>403266.67</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E14">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>402160</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>400520</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E16">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>400035.29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E17">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>394600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>392800</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>391600</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>375400</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>370600</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>353200</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>348850</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E24">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>84000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E25">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
+        <v>328</v>
+      </c>
+      <c r="E35" s="5">
+        <v>415896.6</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D34:G34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1690D3C-C60E-4880-86C3-D777729BF4D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91854FF1-D17E-4141-AC15-5CC72A0CF3A3}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>439120</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1">
+        <v>433182.01</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>431800</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>420200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="E5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>417050</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>417040</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>414537.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E8">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>412600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>412400</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>411000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>403266.67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E12">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>401918.75</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E13">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>398760</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E14">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>394600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>385600</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>381800</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>375400</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>366533.33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>357066.67</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>323800</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="E21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>301900</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>84000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F53BCF-42B1-4E66-9B08-C38A2D096D6C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>